--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3399.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3399.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.851807376468831</v>
+        <v>1.410281896591187</v>
       </c>
       <c r="B1">
-        <v>2.058591176031261</v>
+        <v>6.431737422943115</v>
       </c>
       <c r="C1">
-        <v>2.201114606771502</v>
+        <v>3.566759824752808</v>
       </c>
       <c r="D1">
-        <v>2.987653529765943</v>
+        <v>1.593715071678162</v>
       </c>
       <c r="E1">
-        <v>3.694429976716527</v>
+        <v>1.122732639312744</v>
       </c>
     </row>
   </sheetData>
